--- a/Documentacion/Propuesta/SOA - OIC/SOA_Integraciones.xlsx
+++ b/Documentacion/Propuesta/SOA - OIC/SOA_Integraciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GER\Documentacion\Propuesta\SOA - OIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27006FC-7336-4A33-956B-24978EF7E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C0377-97A4-4AD9-B587-5D18D8FF3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integraciones" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Componentes SOA INER" sheetId="3" r:id="rId3"/>
     <sheet name="Componentes SOA Comoons" sheetId="4" r:id="rId4"/>
     <sheet name="Proyectos OSB" sheetId="5" r:id="rId5"/>
+    <sheet name="inventario" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>Integración SOACS</t>
   </si>
@@ -336,6 +337,36 @@
   <si>
     <t>AR Creacion de transacciones</t>
   </si>
+  <si>
+    <t>No Bpel, Sbpel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo servicio </t>
+  </si>
+  <si>
+    <t>Carpeta</t>
+  </si>
+  <si>
+    <t>Total Operaciones</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>Total Servicios</t>
+  </si>
+  <si>
+    <t>INER</t>
+  </si>
+  <si>
+    <t>OSB</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>Commons</t>
+  </si>
 </sst>
 </file>
 
@@ -6170,7 +6201,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6216,9 +6247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6266,7 +6297,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6314,7 +6345,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6360,9 +6391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6410,7 +6441,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6458,7 +6489,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6504,9 +6535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6554,7 +6585,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6602,7 +6633,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6648,9 +6679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6698,7 +6729,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6746,7 +6777,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6792,9 +6823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6842,7 +6873,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6890,7 +6921,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6936,9 +6967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6986,7 +7017,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7034,7 +7065,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7080,9 +7111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7130,7 +7161,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7178,7 +7209,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7224,9 +7255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7274,7 +7305,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7322,7 +7353,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7368,9 +7399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7418,7 +7449,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7466,7 +7497,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7512,9 +7543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7562,7 +7593,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7610,7 +7641,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7656,9 +7687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7706,7 +7737,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7754,7 +7785,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7800,9 +7831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7850,7 +7881,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7898,7 +7929,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7944,9 +7975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7994,7 +8025,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8042,7 +8073,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8088,9 +8119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8138,7 +8169,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8186,7 +8217,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8232,9 +8263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8282,7 +8313,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8330,7 +8361,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8376,9 +8407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8426,7 +8457,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8474,7 +8505,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8520,9 +8551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8570,7 +8601,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8618,7 +8649,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8664,9 +8695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8714,7 +8745,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8762,7 +8793,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8808,9 +8839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8858,7 +8889,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8906,7 +8937,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8952,9 +8983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9002,7 +9033,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9050,7 +9081,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9096,9 +9127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9146,7 +9177,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9194,7 +9225,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9240,9 +9271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9290,7 +9321,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9338,7 +9369,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9384,9 +9415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9434,7 +9465,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9482,7 +9513,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9528,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9578,7 +9609,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9626,7 +9657,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9672,9 +9703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9722,7 +9753,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9770,7 +9801,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9816,9 +9847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9866,7 +9897,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9914,7 +9945,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9960,9 +9991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10010,7 +10041,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10058,7 +10089,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10104,9 +10135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10154,7 +10185,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10202,7 +10233,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10248,9 +10279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10298,7 +10329,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10346,7 +10377,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10392,9 +10423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10442,7 +10473,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10490,7 +10521,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10536,9 +10567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10584,9 +10615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10634,7 +10665,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10682,7 +10713,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10728,9 +10759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10778,7 +10809,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10826,7 +10857,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10872,9 +10903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10922,7 +10953,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10970,7 +11001,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11016,9 +11047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11066,7 +11097,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11114,7 +11145,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11160,9 +11191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11210,7 +11241,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11258,7 +11289,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11304,9 +11335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11354,7 +11385,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11402,7 +11433,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11448,9 +11479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11498,7 +11529,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11546,7 +11577,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11592,9 +11623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11642,7 +11673,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11690,7 +11721,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11736,9 +11767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11786,7 +11817,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11839,7 +11870,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11885,9 +11916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11935,7 +11966,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11981,9 +12012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12029,9 +12060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12079,7 +12110,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12127,7 +12158,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12173,9 +12204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12223,7 +12254,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12271,7 +12302,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12317,9 +12348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12367,7 +12398,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12415,7 +12446,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12461,9 +12492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12511,7 +12542,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12559,7 +12590,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12605,9 +12636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12655,7 +12686,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12703,7 +12734,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12749,9 +12780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12799,7 +12830,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12847,7 +12878,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12893,9 +12924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12943,7 +12974,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12991,7 +13022,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13037,891 +13068,3243 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:8:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53437BEE-A8C5-45AE-A19B-DC7218AA5F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1809750"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:8:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A38CE-3129-482F-BA40-F8A7E6E057FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="1809750"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169F22A1-E4B0-41FB-BB99-E9BA643DA2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1990725"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BE1FB2-4FC0-4B2E-BCCE-9A1139CDB5EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1990725"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F4C92F-9045-40DF-AD10-CA673671765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="1990725"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35490795-E3A2-4EA7-B428-CDDDC905802B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2171700"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02016301-5D9B-473D-87C6-075485A8F69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2171700"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3846329-1EAC-40C1-A32F-95AFDDC7F2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="2171700"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7839CD4C-0FA2-43DE-BEB6-18ABE005EBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2352675"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81FE130-5FFC-413A-BAE0-3F67FF4ED1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2352675"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE8212-D5FD-4F3A-981F-2B7E87FDDF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="2352675"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4521EAB7-0E9F-4FBB-B692-3111A56E40FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF5D9EC-578B-4888-94E5-05229D78A98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8394D88-0BD4-41E0-AE15-406A9105BED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="2533650"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913CF37D-5CD7-4329-A0AF-4FE84CBD8F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2714625"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EF673-42F6-4C7B-9D55-4D8F55B8BF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2714625"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA6F722-56E2-4E0A-BD55-C19F64797690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="2714625"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC3224F-3E3E-4988-B553-E27932BDFDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2895600"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52EEF70-3375-4F6D-B4A6-573BE37F11C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2895600"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C674EEB-F7C2-4CBF-9838-E79A6A6CFCC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="2895600"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5AA2D7-E996-4A92-941A-5C33EA7F8114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3076575"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D126996-1A15-48BB-828C-276B3DBAAD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3076575"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691E1B90-5D4C-477F-9296-E0448DE4908A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3076575"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C10191-E876-4A10-8E5E-464E8D206C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAD6ACD-712A-41A7-98B2-83C55DFC3DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A0AD4E-16A0-4FFE-8753-0959F0A5C561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3257550"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8B1A92-D6DB-42DA-A745-6764D6D140A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3438525"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD77977-A0BE-4F41-9048-E695E3F9EA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3438525"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A16053-5E39-4112-9C51-D6C263F1E4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3438525"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3CCCE-5B71-4982-B4A3-0261A63FA729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CFB19A-3B4F-4FF9-9C4D-0796762BED41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1673775B-A6AB-47A2-8324-7B149848A4C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3619500"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42A7733-E62B-4F5C-A647-252B99A184D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3800475"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C09482-A4CA-423B-B8A0-B92A0758DE04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3800475"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB446A3-AA3F-4476-9BF1-05CFE353FC78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3800475"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F87E4B-399D-4A50-BDC7-55DDB6550D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3981450"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF484F8-1DA9-4C3F-9C2F-A36368D24F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3981450"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6853C79F-1229-49A5-922E-9629BFDFDB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="3981450"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3161C4BB-CB7D-4D28-960B-31E65F969386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4162425"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E73BA6-22CB-4A05-A7E1-F0CB72CCBE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4162425"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BD59F6-B640-4FC6-9233-BD22F161A0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="4162425"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC59E4-020E-428E-B90B-5FD399756449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4343400"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49DD9BA-A09D-45D7-81E0-C2DD5CFBA19C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4343400"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CE4B14-805C-451E-BFA5-392C5138B3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="4343400"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786E6E9F-99FF-498B-86BF-608BE77EB402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4524375"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AB218A-6D92-4643-ACF3-7693A1CDEB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4524375"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BBAB19-E514-4198-B23E-F1ADE41A8D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="4524375"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A6C50A-A4F0-4D55-8336-2AB6A935ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5429250"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:8:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53437BEE-A8C5-45AE-A19B-DC7218AA5F35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1809750"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="75" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C38CDE4-4070-4BF4-B561-9F2DE9156DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="5429250"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A601709F-16D7-463F-814A-195D4631AEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="5429250"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:8:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A38CE-3129-482F-BA40-F8A7E6E057FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="1809750"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="77" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368EE433-D3E9-4BD6-AE64-D1568C9A7B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5610225"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169F22A1-E4B0-41FB-BB99-E9BA643DA2D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1990725"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BE1FB2-4FC0-4B2E-BCCE-9A1139CDB5EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1990725"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="78" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC0E222-A088-4140-807C-E5B2484A9464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="5610225"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2B42D6-01CC-4DAC-A943-E97A59A75514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="5610225"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:9:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F4C92F-9045-40DF-AD10-CA673671765D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="1990725"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="80" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55F365F-846B-4E54-9A57-C42139D16B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5791200"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35490795-E3A2-4EA7-B428-CDDDC905802B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2171700"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02016301-5D9B-473D-87C6-075485A8F69D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2171700"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="81" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29F88CF-6669-4FCA-B4DD-F12B8C7951F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="5791200"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548C50B2-BB38-41A8-A206-B552D7200C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="5791200"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:10:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3846329-1EAC-40C1-A32F-95AFDDC7F2E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="2171700"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="83" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE11389-A2B4-469C-9D33-F8FA9BF28D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5972175"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7839CD4C-0FA2-43DE-BEB6-18ABE005EBF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2352675"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81FE130-5FFC-413A-BAE0-3F67FF4ED1F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2352675"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="84" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B1FA78-55D5-412B-B546-37BF688BB681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="5972175"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDB10FC-D430-4D93-922F-A1732F144387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="5972175"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:11:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE8212-D5FD-4F3A-981F-2B7E87FDDF36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="2352675"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="86" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF6FC3B-4312-47E1-83E8-737392D8458B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6153150"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4521EAB7-0E9F-4FBB-B692-3111A56E40FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2533650"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF5D9EC-578B-4888-94E5-05229D78A98D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2533650"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="87" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350FD13F-9D74-48A6-B316-75068E03396E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6153150"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66362363-836F-4F63-B3F2-E93A0D72AE32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="6153150"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:12:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8394D88-0BD4-41E0-AE15-406A9105BED5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="2533650"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="89" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999FF143-3C83-495C-B13D-AF74DC7C2274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6334125"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913CF37D-5CD7-4329-A0AF-4FE84CBD8F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2714625"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EF673-42F6-4C7B-9D55-4D8F55B8BF9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2714625"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+        <xdr:cNvPr id="90" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1EF4BC-B052-4FEF-AD3E-94BC70119E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6334125"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3202E47-76CE-4873-B486-3AF028431978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="6334125"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:13:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA6F722-56E2-4E0A-BD55-C19F64797690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="2714625"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+        <xdr:cNvPr id="92" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A056CB18-17AC-4C07-BE3C-750BEA76F44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC3224F-3E3E-4988-B553-E27932BDFDD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2895600"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52EEF70-3375-4F6D-B4A6-573BE37F11C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2895600"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="93" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76D5003-FB56-4DF4-9391-58A4DC86F392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6515100"/>
+          <a:ext cx="19050" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:tabColSpr1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5491C14-65F7-45AA-B4A1-898EA84AA9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6696075"/>
+          <a:ext cx="53340" cy="53340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13955,21 +16338,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:14:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C674EEB-F7C2-4CBF-9838-E79A6A6CFCC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="2895600"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="95" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:dhp1" descr="Desplegado/Desplegado de Nuevo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE1DDDB-1032-4FC4-96DB-48E31B78FC20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6696075"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13999,24 +16382,24 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5AA2D7-E996-4A92-941A-5C33EA7F8114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3076575"/>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C160A62-4B4C-41D3-B71E-026D4FF58853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6696075"/>
           <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14038,34 +16421,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D126996-1A15-48BB-828C-276B3DBAAD5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3076575"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="97" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F50FAA-CAFB-48BB-930B-103780D4D74F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6696075"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14093,75 +16476,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:15:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691E1B90-5D4C-477F-9296-E0448DE4908A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3076575"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C10191-E876-4A10-8E5E-464E8D206C23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3257550"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="98" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AABBED2-4ADC-40D3-AD29-E7D8F77DA643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6696075"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14189,27 +16524,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC087F37-09BC-4555-AFFD-0450BFC3D9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6877050"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAD6ACD-712A-41A7-98B2-83C55DFC3DD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3257550"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="100" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D78B9-7924-49C7-91BC-CF71F3D9ACEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6877050"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14243,21 +16626,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:16:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A0AD4E-16A0-4FFE-8753-0959F0A5C561}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3257550"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="101" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67526056-1D16-4870-9D9A-3C25C589A2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="6877050"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14287,24 +16670,24 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8B1A92-D6DB-42DA-A745-6764D6D140A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3438525"/>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC7DF1F-2C0C-4B07-A5D9-4F31634A8BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7058025"/>
           <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14326,34 +16709,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD77977-A0BE-4F41-9048-E695E3F9EA05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3438525"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="103" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06ED0AF5-ECF9-4B7A-B7AA-EC748B603F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7058025"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14381,75 +16764,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:17:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A16053-5E39-4112-9C51-D6C263F1E4E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3438525"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3CCCE-5B71-4982-B4A3-0261A63FA729}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3619500"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="104" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C958F8A0-4039-47CF-B93F-DB70E20E8122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7058025"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14477,27 +16812,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057C76BA-6C1C-47B3-BACB-686CBE9972A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7239000"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CFB19A-3B4F-4FF9-9C4D-0796762BED41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3619500"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="106" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A013795C-1C0E-4C54-B588-806050534A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7239000"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14531,21 +16914,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:18:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1673775B-A6AB-47A2-8324-7B149848A4C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3619500"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="107" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB2EFC-F4B4-4C66-99C4-C5AC77FEA6C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7239000"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14575,24 +16958,24 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42A7733-E62B-4F5C-A647-252B99A184D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3800475"/>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E925E4-9DF3-4C69-89F3-9B7CEA9A5D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7419975"/>
           <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14614,34 +16997,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C09482-A4CA-423B-B8A0-B92A0758DE04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3800475"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="109" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A09085-0F91-481D-8F7A-F1BC949DAF49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7419975"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14669,75 +17052,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:19:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB446A3-AA3F-4476-9BF1-05CFE353FC78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3800475"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F87E4B-399D-4A50-BDC7-55DDB6550D1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3981450"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="110" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FA7A93-4A01-4DC4-A502-200D41BB7472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7419975"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14765,27 +17100,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01CE880-5420-4649-939D-ADC9DB210253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7600950"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF484F8-1DA9-4C3F-9C2F-A36368D24F9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3981450"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="112" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427B8043-9939-48BD-B358-52D8702809C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7600950"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14819,21 +17202,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:20:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6853C79F-1229-49A5-922E-9629BFDFDB4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3981450"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="113" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAD230E-075C-42A8-8333-BE1F20A13E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7600950"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14863,24 +17246,24 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3161C4BB-CB7D-4D28-960B-31E65F969386}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4162425"/>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D293397-ED97-4AEC-8367-1AE055075770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7781925"/>
           <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14902,34 +17285,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E73BA6-22CB-4A05-A7E1-F0CB72CCBE6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4162425"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="115" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888FF2A1-F157-4F58-B5C2-8911996A442F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7781925"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14957,75 +17340,27 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:21:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BD59F6-B640-4FC6-9233-BD22F161A0E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="4162425"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC59E4-020E-428E-B90B-5FD399756449}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4343400"/>
-          <a:ext cx="304800" cy="314325"/>
+        <xdr:cNvPr id="116" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeState" descr="Activo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30768B06-D1DE-4349-8727-0805F2DB43A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7781925"/>
+          <a:ext cx="304800" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15053,27 +17388,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:7:compositeDefault" descr="Revisión por Defecto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3D9CC-F450-4D4D-9B6A-E4565AA43AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7962900"/>
+          <a:ext cx="304800" cy="310515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49DD9BA-A09D-45D7-81E0-C2DD5CFBA19C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4343400"/>
-          <a:ext cx="15240" cy="15240"/>
+        <xdr:cNvPr id="118" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:7:ohbs2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C20B38-D5DA-4B83-9818-3AFE34E67571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="7962900"/>
+          <a:ext cx="19050" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15104,2358 +17487,6 @@
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:22:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CE4B14-805C-451E-BFA5-392C5138B3BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="4343400"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786E6E9F-99FF-498B-86BF-608BE77EB402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4524375"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AB218A-6D92-4643-ACF3-7693A1CDEB0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4524375"/>
-          <a:ext cx="15240" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:23:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BBAB19-E514-4198-B23E-F1ADE41A8D78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="4524375"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A6C50A-A4F0-4D55-8336-2AB6A935ABFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5429250"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C38CDE4-4070-4BF4-B561-9F2DE9156DE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="5429250"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A601709F-16D7-463F-814A-195D4631AEB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="5429250"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368EE433-D3E9-4BD6-AE64-D1568C9A7B86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5610225"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC0E222-A088-4140-807C-E5B2484A9464}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="5610225"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2B42D6-01CC-4DAC-A943-E97A59A75514}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="5610225"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55F365F-846B-4E54-9A57-C42139D16B68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5791200"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29F88CF-6669-4FCA-B4DD-F12B8C7951F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="5791200"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548C50B2-BB38-41A8-A206-B552D7200C2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="5791200"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE11389-A2B4-469C-9D33-F8FA9BF28D75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5972175"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B1FA78-55D5-412B-B546-37BF688BB681}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="5972175"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDB10FC-D430-4D93-922F-A1732F144387}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="5972175"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF6FC3B-4312-47E1-83E8-737392D8458B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6153150"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350FD13F-9D74-48A6-B316-75068E03396E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6153150"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66362363-836F-4F63-B3F2-E93A0D72AE32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="6153150"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999FF143-3C83-495C-B13D-AF74DC7C2274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6334125"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1EF4BC-B052-4FEF-AD3E-94BC70119E57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6334125"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3202E47-76CE-4873-B486-3AF028431978}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="6334125"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A056CB18-17AC-4C07-BE3C-750BEA76F44B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6515100"/>
-          <a:ext cx="304800" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76D5003-FB56-4DF4-9391-58A4DC86F392}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6515100"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:tabColSpr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5491C14-65F7-45AA-B4A1-898EA84AA9C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6696075"/>
-          <a:ext cx="53340" cy="53340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:dhp1" descr="Desplegado/Desplegado de Nuevo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE1DDDB-1032-4FC4-96DB-48E31B78FC20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6696075"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C160A62-4B4C-41D3-B71E-026D4FF58853}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6696075"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F50FAA-CAFB-48BB-930B-103780D4D74F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6696075"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:0:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AABBED2-4ADC-40D3-AD29-E7D8F77DA643}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6696075"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC087F37-09BC-4555-AFFD-0450BFC3D9EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="6877050"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D78B9-7924-49C7-91BC-CF71F3D9ACEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6877050"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:1:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67526056-1D16-4870-9D9A-3C25C589A2C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="6877050"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC7DF1F-2C0C-4B07-A5D9-4F31634A8BB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7058025"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06ED0AF5-ECF9-4B7A-B7AA-EC748B603F15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7058025"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:2:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C958F8A0-4039-47CF-B93F-DB70E20E8122}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7058025"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057C76BA-6C1C-47B3-BACB-686CBE9972A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7239000"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A013795C-1C0E-4C54-B588-806050534A45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7239000"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:3:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB2EFC-F4B4-4C66-99C4-C5AC77FEA6C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7239000"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E925E4-9DF3-4C69-89F3-9B7CEA9A5D27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7419975"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A09085-0F91-481D-8F7A-F1BC949DAF49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7419975"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:4:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FA7A93-4A01-4DC4-A502-200D41BB7472}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7419975"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01CE880-5420-4649-939D-ADC9DB210253}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7600950"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427B8043-9939-48BD-B358-52D8702809C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7600950"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:5:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAD230E-075C-42A8-8333-BE1F20A13E55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7600950"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D293397-ED97-4AEC-8367-1AE055075770}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7781925"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888FF2A1-F157-4F58-B5C2-8911996A442F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7781925"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:6:compositeState" descr="Activo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30768B06-D1DE-4349-8727-0805F2DB43A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7781925"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:7:compositeDefault" descr="Revisión por Defecto">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3D9CC-F450-4D4D-9B6A-E4565AA43AE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7962900"/>
-          <a:ext cx="304800" cy="310515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="emT:dc_dc1:r2:1:lcdc1:ipgcdc1:t1:7:ohbs2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C20B38-D5DA-4B83-9818-3AFE34E67571}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="7962900"/>
-          <a:ext cx="19050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17898,46 +17929,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56704A62-1299-4EE1-B01D-1703F600A9FF}" name="Tabla3" displayName="Tabla3" ref="A1:B25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{56704A62-1299-4EE1-B01D-1703F600A9FF}" name="Tabla3" displayName="Tabla3" ref="A1:B26" totalsRowCount="1">
   <autoFilter ref="A1:B25" xr:uid="{56704A62-1299-4EE1-B01D-1703F600A9FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A1294C78-641B-44B2-AEF8-4B30839962F9}" name="Compuesto"/>
-    <tableColumn id="2" xr3:uid="{3E59751C-C2C3-49A3-905A-9CDE2481E3E5}" name="No Operaciones"/>
+    <tableColumn id="2" xr3:uid="{3E59751C-C2C3-49A3-905A-9CDE2481E3E5}" name="No Bpel, Sbpel" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla3[No Bpel, Sbpel])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{170D3FB2-6164-4965-A890-CA2C3842C319}" name="Tabla35" displayName="Tabla35" ref="A1:B8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{170D3FB2-6164-4965-A890-CA2C3842C319}" name="Tabla35" displayName="Tabla35" ref="A1:B9" totalsRowCount="1">
   <autoFilter ref="A1:B8" xr:uid="{56704A62-1299-4EE1-B01D-1703F600A9FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3C969C64-F638-41CC-ACE0-6D8B13224425}" name="Compuesto"/>
-    <tableColumn id="2" xr3:uid="{A8F02FC7-5803-43EA-8051-2676B23FE18C}" name="No Operaciones"/>
+    <tableColumn id="2" xr3:uid="{A8F02FC7-5803-43EA-8051-2676B23FE18C}" name="No Operaciones" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla35[No Operaciones])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C34489F9-1A62-4BD7-80D8-DAF47A3E584A}" name="Tabla36" displayName="Tabla36" ref="A1:B9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C34489F9-1A62-4BD7-80D8-DAF47A3E584A}" name="Tabla36" displayName="Tabla36" ref="A1:B10" totalsRowCount="1">
   <autoFilter ref="A1:B9" xr:uid="{56704A62-1299-4EE1-B01D-1703F600A9FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{31C1EE50-CCEB-45A9-9921-0A9A37A5E942}" name="Compuesto"/>
-    <tableColumn id="2" xr3:uid="{4DF90D67-E12C-4A8E-88AE-6B92A59B8F4D}" name="No Operaciones"/>
+    <tableColumn id="2" xr3:uid="{4DF90D67-E12C-4A8E-88AE-6B92A59B8F4D}" name="No Operaciones" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla36[No Operaciones])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F693CBF9-FD92-4A92-9FD3-B0A20FB784E4}" name="Tabla6" displayName="Tabla6" ref="A1:B19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F693CBF9-FD92-4A92-9FD3-B0A20FB784E4}" name="Tabla6" displayName="Tabla6" ref="A1:B20" totalsRowCount="1">
   <autoFilter ref="A1:B19" xr:uid="{F693CBF9-FD92-4A92-9FD3-B0A20FB784E4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBE52C94-35CB-4493-B0C2-6BF11C9D75AC}" name="Servicio OSB"/>
-    <tableColumn id="2" xr3:uid="{FA02C7B7-46EA-43BB-8E39-CC956C269C76}" name="Numero Operaciones del servicio "/>
+    <tableColumn id="1" xr3:uid="{EBE52C94-35CB-4493-B0C2-6BF11C9D75AC}" name="Servicio OSB" totalsRowFunction="custom">
+      <totalsRowFormula>COUNT(Tabla6[Servicio OSB])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FA02C7B7-46EA-43BB-8E39-CC956C269C76}" name="Numero Operaciones del servicio " totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla6[[Numero Operaciones del servicio ]])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDA78BBF-6F03-4DAC-A1F2-00F8EDCA77ED}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowCount="1">
+  <autoFilter ref="A1:D5" xr:uid="{CDA78BBF-6F03-4DAC-A1F2-00F8EDCA77ED}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2145745F-6A6F-4DBA-9A00-A38FED4EE4F0}" name="Tipo servicio "/>
+    <tableColumn id="2" xr3:uid="{01B8A63A-84D6-44D7-9656-3610F8B10FB1}" name="Carpeta"/>
+    <tableColumn id="3" xr3:uid="{F6DBE1BF-0C10-4EC5-952E-907946D97BBF}" name="Total Servicios"/>
+    <tableColumn id="4" xr3:uid="{1EDCAF83-32A9-4A83-A84D-7742024DEA79}" name="Total Operaciones" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Tabla2[Total Operaciones])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -18206,14 +18262,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
@@ -18658,14 +18714,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576D80E7-5ECB-4982-A4D5-F108F9837EDA}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -18673,127 +18729,205 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>SUM(Tabla3[No Bpel, Sbpel])</f>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -18883,7 +19017,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18904,35 +19038,62 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>SUM(Tabla35[No Operaciones])</f>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -19002,10 +19163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCE42DE-7621-420F-BDB7-2E690687492F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19026,39 +19187,69 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>SUM(Tabla36[No Operaciones])</f>
         <v>25</v>
       </c>
     </row>
@@ -19084,16 +19275,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAA9790-8565-4E9F-978C-20E4AFDA72E6}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B19"/>
+      <selection activeCell="C19" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -19246,6 +19438,113 @@
       </c>
       <c r="B19">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>COUNT(Tabla6[Servicio OSB])</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>SUM(Tabla6[[Numero Operaciones del servicio ]])</f>
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066F80F-4840-4546-9B9F-D327D06214EC}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>SUM(Tabla2[Total Operaciones])</f>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
